--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_56.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_56.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Naoko Ito</t>
+          <t>Tsubasa Takahashi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Naoko Ito</t>
+          <t>Tsubasa Takahashi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Naoko Ito</t>
+          <t>Tsubasa Takahashi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Naoko Ito</t>
+          <t>Tsubasa Takahashi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Naoko Ito</t>
+          <t>Tsubasa Takahashi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Naoko Ito</t>
+          <t>Tsubasa Takahashi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Naoko Ito</t>
+          <t>Tsubasa Takahashi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Naoko Ito</t>
+          <t>Tsubasa Takahashi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Naoko Ito</t>
+          <t>Tsubasa Takahashi</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Naoko Ito</t>
+          <t>Tsubasa Takahashi</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Naoko Ito</t>
+          <t>Tsubasa Takahashi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Naoko Ito</t>
+          <t>Tsubasa Takahashi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Naoko Ito</t>
+          <t>Tsubasa Takahashi</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Naoko Ito</t>
+          <t>Tsubasa Takahashi</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Naoko Ito</t>
+          <t>Tsubasa Takahashi</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
